--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repos\ADP-Mini-Project\FiloDirectory\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B5AA66-8A98-4FAE-8EC3-ED57E8B0DA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr defaultThemeVersion="124226" codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>SL NO</t>
   </si>
@@ -118,8 +113,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,11 +124,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,8 +152,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" xfId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" xfId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -166,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -497,24 +485,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col width="10.21875" customWidth="1" min="1" max="1"/>
+    <col width="11.109375" customWidth="1" min="2" max="2"/>
+    <col width="10.77734375" customWidth="1" min="3" max="3"/>
+    <col width="11.109375" customWidth="1" min="4" max="4"/>
+    <col width="10.33203125" customWidth="1" min="6" max="6"/>
+    <col width="11.21875" customWidth="1" min="7" max="7"/>
+    <col width="14.6640625" customWidth="1" min="9" max="9"/>
+    <col width="13.33203125" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,26 +539,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:10">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>12.8667</v>
       </c>
-      <c r="D2">
-        <v>74.883300000000006</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>74.88330000000001</v>
+      </c>
+      <c r="E2" t="n">
         <v>298.63</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1013</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>73</v>
       </c>
       <c r="H2" t="s">
@@ -574,30 +567,30 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>12.9762</v>
       </c>
-      <c r="D3">
-        <v>77.603300000000004</v>
-      </c>
-      <c r="E3">
-        <v>293.97000000000003</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="n">
+        <v>77.6033</v>
+      </c>
+      <c r="E3" t="n">
+        <v>293.97</v>
+      </c>
+      <c r="F3" t="n">
         <v>1017</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="s">
@@ -606,30 +599,30 @@
       <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2.57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>13.0878</v>
       </c>
-      <c r="D4">
-        <v>80.278499999999994</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>80.27849999999999</v>
+      </c>
+      <c r="E4" t="n">
         <v>299.24</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>1018</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>83</v>
       </c>
       <c r="H4" t="s">
@@ -638,30 +631,30 @@
       <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:10">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>19.014399999999998</v>
-      </c>
-      <c r="D5">
-        <v>72.847899999999996</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="n">
+        <v>19.0144</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.8479</v>
+      </c>
+      <c r="E5" t="n">
         <v>298.14</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1013</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>78</v>
       </c>
       <c r="H5" t="s">
@@ -670,30 +663,30 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:10">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>15.333299999999999</v>
-      </c>
-      <c r="D6">
-        <v>74.083299999999994</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E6" t="n">
         <v>298.36</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1015</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>51</v>
       </c>
       <c r="H6" t="s">
@@ -702,30 +695,30 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:10">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>9.9398999999999997</v>
-      </c>
-      <c r="D7">
-        <v>76.260199999999998</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="n">
+        <v>9.9399</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76.2602</v>
+      </c>
+      <c r="E7" t="n">
         <v>300.14</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>1014</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>67</v>
       </c>
       <c r="H7" t="s">
@@ -734,30 +727,30 @@
       <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:10">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>22.569700000000001</v>
-      </c>
-      <c r="D8">
-        <v>88.369699999999995</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="n">
+        <v>22.5697</v>
+      </c>
+      <c r="D8" t="n">
+        <v>88.36969999999999</v>
+      </c>
+      <c r="E8" t="n">
         <v>294.12</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1018</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>78</v>
       </c>
       <c r="H8" t="s">
@@ -766,30 +759,30 @@
       <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>3.09</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:10">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>11.25</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>75.7667</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>302.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1014</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>57</v>
       </c>
       <c r="H9" t="s">
@@ -798,30 +791,30 @@
       <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="J9" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>28.666699999999999</v>
-      </c>
-      <c r="D10">
-        <v>77.216700000000003</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="n">
+        <v>28.6667</v>
+      </c>
+      <c r="D10" t="n">
+        <v>77.2167</v>
+      </c>
+      <c r="E10" t="n">
         <v>290.2</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1018</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>82</v>
       </c>
       <c r="H10" t="s">
@@ -830,30 +823,30 @@
       <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>4.63</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:10">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>19.014399999999998</v>
-      </c>
-      <c r="D11">
-        <v>72.847899999999996</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>19.0144</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72.8479</v>
+      </c>
+      <c r="E11" t="n">
         <v>300.14</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>1014</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>69</v>
       </c>
       <c r="H11" t="s">
@@ -862,30 +855,30 @@
       <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:10">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>41.85</v>
       </c>
-      <c r="D12">
-        <v>-87.65</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="n">
+        <v>-87.65000000000001</v>
+      </c>
+      <c r="E12" t="n">
         <v>254.94</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>1026</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>77</v>
       </c>
       <c r="H12" t="s">
@@ -894,30 +887,30 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>4.03</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:10">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13">
-        <v>28.083600000000001</v>
-      </c>
-      <c r="D13">
-        <v>-80.608099999999993</v>
-      </c>
-      <c r="E13">
-        <v>289.64999999999998</v>
-      </c>
-      <c r="F13">
+      <c r="C13" t="n">
+        <v>28.0836</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-80.60809999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>289.65</v>
+      </c>
+      <c r="F13" t="n">
         <v>1018</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>89</v>
       </c>
       <c r="H13" t="s">
@@ -926,30 +919,30 @@
       <c r="I13" t="s">
         <v>14</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:10">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14">
-        <v>51.508499999999998</v>
-      </c>
-      <c r="D14">
-        <v>-0.12570000000000001</v>
-      </c>
-      <c r="E14">
-        <v>278.77999999999997</v>
-      </c>
-      <c r="F14">
+      <c r="C14" t="n">
+        <v>51.5085</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.1257</v>
+      </c>
+      <c r="E14" t="n">
+        <v>278.78</v>
+      </c>
+      <c r="F14" t="n">
         <v>1010</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>73</v>
       </c>
       <c r="H14" t="s">
@@ -958,8 +951,40 @@
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>7.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D15" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>298.36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G15" t="n">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>SL NO</t>
   </si>
@@ -47,67 +47,13 @@
     <t>WIND SPEED</t>
   </si>
   <si>
-    <t>Mangalore</t>
+    <t>goa</t>
   </si>
   <si>
     <t>IN</t>
   </si>
   <si>
-    <t>haze</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>few clouds</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>mist</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
     <t>clear sky</t>
-  </si>
-  <si>
-    <t>Cochin</t>
-  </si>
-  <si>
-    <t>scattered clouds</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Calicut</t>
-  </si>
-  <si>
-    <t>broken clouds</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>GB</t>
   </si>
 </sst>
 </file>
@@ -489,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,19 +493,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8667</v>
+        <v>15.3333</v>
       </c>
       <c r="D2" t="n">
-        <v>74.88330000000001</v>
+        <v>74.08329999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>298.63</v>
+        <v>298.36</v>
       </c>
       <c r="F2" t="n">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G2" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -568,423 +514,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12.9762</v>
-      </c>
-      <c r="D3" t="n">
-        <v>77.6033</v>
-      </c>
-      <c r="E3" t="n">
-        <v>293.97</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1017</v>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.0878</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.27849999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>299.24</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1018</v>
-      </c>
-      <c r="G4" t="n">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.0144</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.8479</v>
-      </c>
-      <c r="E5" t="n">
-        <v>298.14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1013</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>298.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1015</v>
-      </c>
-      <c r="G6" t="n">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.9399</v>
-      </c>
-      <c r="D7" t="n">
-        <v>76.2602</v>
-      </c>
-      <c r="E7" t="n">
-        <v>300.14</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G7" t="n">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22.5697</v>
-      </c>
-      <c r="D8" t="n">
-        <v>88.36969999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>294.12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1018</v>
-      </c>
-      <c r="G8" t="n">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75.7667</v>
-      </c>
-      <c r="E9" t="n">
-        <v>302.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G9" t="n">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>28.6667</v>
-      </c>
-      <c r="D10" t="n">
-        <v>77.2167</v>
-      </c>
-      <c r="E10" t="n">
-        <v>290.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1018</v>
-      </c>
-      <c r="G10" t="n">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19.0144</v>
-      </c>
-      <c r="D11" t="n">
-        <v>72.8479</v>
-      </c>
-      <c r="E11" t="n">
-        <v>300.14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G11" t="n">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-87.65000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>254.94</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1026</v>
-      </c>
-      <c r="G12" t="n">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>28.0836</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-80.60809999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>289.65</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1018</v>
-      </c>
-      <c r="G13" t="n">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="n">
-        <v>51.5085</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.1257</v>
-      </c>
-      <c r="E14" t="n">
-        <v>278.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1010</v>
-      </c>
-      <c r="G14" t="n">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D15" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>298.36</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G15" t="n">
-        <v>88</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -435,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,38 @@
         <v>0.91</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>292.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G3" t="n">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -435,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,38 @@
         <v>1.07</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G4" t="n">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>SL NO</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>clear sky</t>
+  </si>
+  <si>
+    <t>kadri</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>scattered clouds</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +593,70 @@
         <v>1.13</v>
       </c>
     </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.8897</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.8501</v>
+      </c>
+      <c r="E5" t="n">
+        <v>298.56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G5" t="n">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46.7406</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.2797</v>
+      </c>
+      <c r="E6" t="n">
+        <v>264.54</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G6" t="n">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr defaultThemeVersion="124226" codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\errol\Desktop\ADP Mini Project\FiloDirectory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA915FE-6FA2-4B08-98ED-C7BDF99EC612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SL NO</t>
   </si>
@@ -45,35 +50,13 @@
   </si>
   <si>
     <t>WIND SPEED</t>
-  </si>
-  <si>
-    <t>goa</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>clear sky</t>
-  </si>
-  <si>
-    <t>kadri</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>scattered clouds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,11 +65,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,8 +93,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" xfId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" xfId="0" borderId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -120,6 +103,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,29 +434,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="A2:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="10.21875" customWidth="1" min="1" max="1"/>
-    <col width="11.109375" customWidth="1" min="2" max="2"/>
-    <col width="10.77734375" customWidth="1" min="3" max="3"/>
-    <col width="11.109375" customWidth="1" min="4" max="4"/>
-    <col width="10.33203125" customWidth="1" min="6" max="6"/>
-    <col width="11.21875" customWidth="1" min="7" max="7"/>
-    <col width="14.6640625" customWidth="1" min="9" max="9"/>
-    <col width="13.33203125" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,166 +483,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>298.36</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1015</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>292.87</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G3" t="n">
-        <v>92</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>292.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G4" t="n">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.8897</v>
-      </c>
-      <c r="D5" t="n">
-        <v>74.8501</v>
-      </c>
-      <c r="E5" t="n">
-        <v>298.56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1013</v>
-      </c>
-      <c r="G5" t="n">
-        <v>61</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>46.7406</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.2797</v>
-      </c>
-      <c r="E6" t="n">
-        <v>264.54</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1021</v>
-      </c>
-      <c r="G6" t="n">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\errol\Desktop\ADP Mini Project\FiloDirectory\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA915FE-6FA2-4B08-98ED-C7BDF99EC612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr defaultThemeVersion="124226" codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>SL NO</t>
   </si>
@@ -50,13 +45,32 @@
   </si>
   <si>
     <t>WIND SPEED</t>
+  </si>
+  <si>
+    <t>goa</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>clear sky</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>scattered clouds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,11 +79,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +107,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" xfId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" xfId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -103,14 +117,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -434,26 +440,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="A2:J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col width="10.21875" customWidth="1" min="1" max="1"/>
+    <col width="11.109375" customWidth="1" min="2" max="2"/>
+    <col width="10.77734375" customWidth="1" min="3" max="3"/>
+    <col width="11.109375" customWidth="1" min="4" max="4"/>
+    <col width="10.33203125" customWidth="1" min="6" max="6"/>
+    <col width="11.21875" customWidth="1" min="7" max="7"/>
+    <col width="14.6640625" customWidth="1" min="9" max="9"/>
+    <col width="13.33203125" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,6 +492,70 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>296.36</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.8602</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.3198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>285.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G3" t="n">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.31</v>
       </c>
     </row>
   </sheetData>

--- a/FiloDirectory/test.xlsx
+++ b/FiloDirectory/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>SL NO</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>scattered clouds</t>
+  </si>
+  <si>
+    <t>few clouds</t>
+  </si>
+  <si>
+    <t>cape town</t>
+  </si>
+  <si>
+    <t>ZA</t>
   </si>
 </sst>
 </file>
@@ -444,7 +453,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +567,70 @@
         <v>3.31</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>299.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G4" t="n">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-33.9258</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.4232</v>
+      </c>
+      <c r="E5" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
